--- a/data/news_and_keyword/kosdaq/광림.xlsx
+++ b/data/news_and_keyword/kosdaq/광림.xlsx
@@ -2735,12 +2735,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>액면분할 후 첫거래에 上</t>
+          <t>액면분할 후 재거래…'上' 직행</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['액면분할', '후', '첫거래에', '上']</t>
+          <t>['액면분할', '후', '上', '직행']</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>액면분할 후 재거래…'上' 직행</t>
+          <t>액면분할 후 첫거래에 上</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['액면분할', '후', '上', '직행']</t>
+          <t>['액면분할', '후', '첫거래에', '上']</t>
         </is>
       </c>
       <c r="D90" t="n">
